--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -27,12 +27,6 @@
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-insee-code</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>http://interopsante.org/fhir/ValueSet#urn:oid:2.16.840.1.113883.2.8.1.3.4</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -66,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,15 +340,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>22</v>
@@ -372,28 +366,20 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -415,28 +401,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
+++ b/FL-gt-structure/ig/ValueSet-fr-core-vs-insee-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
